--- a/Device Interaction/Automation/Locks.xlsx
+++ b/Device Interaction/Automation/Locks.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="39">
   <si>
     <t>Application</t>
   </si>
@@ -197,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -212,31 +212,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -246,6 +222,10 @@
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -299,12 +279,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
@@ -313,6 +287,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,8 +330,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -362,70 +342,48 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -438,9 +396,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -453,7 +408,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -465,26 +420,51 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,9 +608,8 @@
       <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/beacon-control.groovy","beacon-control.groovy")</f>
-        <v>beacon-control.groovy</v>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>24</v>
@@ -709,9 +688,8 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/enhanced-auto-lock-door.groovy","enhanced-auto-lock-door.groovy")</f>
-        <v>enhanced-auto-lock-door.groovy</v>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -790,9 +768,8 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/good-night-house.groovy","good-night-house.groovy")</f>
-        <v>good-night-house.groovy</v>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>26</v>
@@ -865,23 +842,22 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/initial-state-event-streamer.groovy","initial-state-event-streamer.groovy")</f>
-        <v>initial-state-event-streamer.groovy</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="D6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -952,9 +928,8 @@
       <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lock-it-at-a-specific-time.groovy","lock-it-at-a-specific-time.groovy")</f>
-        <v>lock-it-at-a-specific-time.groovy</v>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>26</v>
@@ -962,10 +937,10 @@
       <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1033,9 +1008,8 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lock-it-when-i-leave.groovy","lock-it-when-i-leave.groovy")</f>
-        <v>lock-it-when-i-leave.groovy</v>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>26</v>
@@ -1046,7 +1020,7 @@
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -1114,9 +1088,8 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/make-it-so.groovy","make-it-so.groovy")</f>
-        <v>make-it-so.groovy</v>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>26</v>
@@ -1127,7 +1100,7 @@
       <c r="G9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -1195,9 +1168,8 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/nfc-tag-toggle.groovy","nfc-tag-toggle.groovy")</f>
-        <v>nfc-tag-toggle.groovy</v>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -1205,10 +1177,10 @@
       <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1276,9 +1248,8 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/single-button-controller.groovy","single-button-controller.groovy")</f>
-        <v>single-button-controller.groovy</v>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>26</v>
@@ -1286,10 +1257,10 @@
       <c r="F11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -1301,7 +1272,7 @@
       <c r="K11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="16" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -1357,20 +1328,19 @@
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-auto-lock-unlock.groovy","smart-auto-lock-unlock.groovy")</f>
-        <v>smart-auto-lock-unlock.groovy</v>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1438,9 +1408,8 @@
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/unlock-it-when-i-arrive.groovy","unlock-it-when-i-arrive.groovy")</f>
-        <v>unlock-it-when-i-arrive.groovy</v>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>26</v>
@@ -1451,7 +1420,7 @@
       <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1519,23 +1488,22 @@
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/auto-lock-door.smartapp.groovy","auto-lock-door.smartapp.groovy")</f>
-        <v>auto-lock-door.smartapp.groovy</v>
+      <c r="D14" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -1550,7 +1518,7 @@
       <c r="M14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="O14" s="12" t="s">
@@ -1594,50 +1562,49 @@
       <c r="A15" s="1">
         <v>13.0</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="16" t="s">
+      <c r="I15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="9" t="s">
@@ -1681,9 +1648,8 @@
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeAwayFromHome.groovy","ecobeeAwayFromHome.groovy")</f>
-        <v>ecobeeAwayFromHome.groovy</v>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>26</v>
@@ -1691,13 +1657,13 @@
       <c r="F16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -1718,10 +1684,10 @@
       <c r="O16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="R16" s="9" t="s">
@@ -1762,9 +1728,8 @@
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/FireCO2Alarm.groovy","FireCO2Alarm.groovy")</f>
-        <v>FireCO2Alarm.groovy</v>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>26</v>
@@ -1775,7 +1740,7 @@
       <c r="G17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -1796,13 +1761,13 @@
       <c r="N17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="R17" s="12" t="s">
@@ -1837,59 +1802,58 @@
       <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="25" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/groveStreams.groovy","groveStreams.groovy")</f>
-        <v>groveStreams.groovy</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="D18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="16" t="s">
+      <c r="Q18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="T18" s="9" t="s">
@@ -1918,62 +1882,61 @@
       <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="25" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/influxdb-logger.groovy","influxdb-logger.groovy")</f>
-        <v>influxdb-logger.groovy</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="16" t="s">
+      <c r="D19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="16" t="s">
+      <c r="N19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="U19" s="9" t="s">
@@ -1999,65 +1962,64 @@
       <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="16" t="s">
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="16" t="s">
+      <c r="K20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="16" t="s">
+      <c r="P20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="V20" s="9" t="s">
@@ -2080,68 +2042,67 @@
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="16" t="s">
+      <c r="D21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="16" t="s">
+      <c r="P21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="W21" s="9" t="s">
@@ -2161,29 +2122,28 @@
       <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/NotifyIfLeftUnlocked.groovy","NotifyIfLeftUnlocked.groovy")</f>
-        <v>NotifyIfLeftUnlocked.groovy</v>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="18" t="s">
+      <c r="H22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J22" s="12" t="s">
@@ -2198,34 +2158,34 @@
       <c r="M22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="16" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="16" t="s">
         <v>32</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="T22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="U22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="W22" s="16" t="s">
+      <c r="U22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="X22" s="9" t="s">
@@ -2242,71 +2202,70 @@
       <c r="A23" s="1">
         <v>21.0</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="D23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="X23" s="16" t="s">
+      <c r="K23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="X23" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Y23" s="9" t="s">
@@ -2317,7 +2276,7 @@
       <c r="AB23" s="10"/>
     </row>
     <row r="24">
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E24">
@@ -2404,7 +2363,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="28">
+      <c r="Z24" s="23">
         <f t="shared" ref="Z24:Z27" si="3">sum(E24:Y24)</f>
         <v>75</v>
       </c>
@@ -2413,7 +2372,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E25">
@@ -2500,13 +2459,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="29">
+      <c r="Z25" s="24">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E26">
@@ -2593,13 +2552,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="31">
+      <c r="Z26" s="26">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E27">
@@ -2686,7 +2645,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="31">
+      <c r="Z27" s="26">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
@@ -2698,211 +2657,211 @@
     <row r="29">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="37"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="37"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="39"/>
-      <c r="P30" s="41"/>
+      <c r="M30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31">
       <c r="B31" s="7"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="34"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="39"/>
-      <c r="P31" s="41"/>
+      <c r="M31" s="31"/>
+      <c r="P31" s="32"/>
     </row>
     <row r="32">
       <c r="B32" s="7"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="39"/>
+      <c r="M32" s="31"/>
     </row>
     <row r="33">
       <c r="B33" s="7"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="39"/>
-      <c r="P33" s="41"/>
+      <c r="M33" s="31"/>
+      <c r="P33" s="32"/>
     </row>
     <row r="34">
       <c r="B34" s="7"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="47"/>
-      <c r="P34" s="41"/>
+      <c r="M34" s="38"/>
+      <c r="P34" s="32"/>
     </row>
     <row r="35">
       <c r="B35" s="7"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="34"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36">
       <c r="B36" s="7"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="34"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="37"/>
-      <c r="P36" s="41"/>
+      <c r="M36" s="29"/>
+      <c r="P36" s="32"/>
     </row>
     <row r="37">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="39"/>
-      <c r="P37" s="41"/>
+      <c r="M37" s="31"/>
+      <c r="P37" s="32"/>
     </row>
     <row r="38">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="39"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39">
       <c r="B39" s="11"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="39"/>
+      <c r="M39" s="31"/>
     </row>
     <row r="40">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="39"/>
+      <c r="M40" s="31"/>
     </row>
     <row r="41">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="47"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42">
-      <c r="I42" s="36"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="54"/>
+      <c r="M42" s="45"/>
     </row>
     <row r="46">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
     </row>
     <row r="47">
-      <c r="E47" s="55"/>
+      <c r="E47" s="48"/>
     </row>
     <row r="48">
-      <c r="E48" s="55"/>
-      <c r="G48" s="55"/>
+      <c r="E48" s="48"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49">
-      <c r="E49" s="55"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="48"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50">
-      <c r="E50" s="55"/>
-      <c r="G50" s="55"/>
+      <c r="E50" s="48"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51">
-      <c r="E51" s="55"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52">
-      <c r="E52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="48"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53">
-      <c r="E53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3041,9 +3000,8 @@
       <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/beacon-control.groovy","beacon-control.groovy")</f>
-        <v>beacon-control.groovy</v>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>24</v>
@@ -3121,11 +3079,10 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/enhanced-auto-lock-door.groovy","enhanced-auto-lock-door.groovy")</f>
-        <v>enhanced-auto-lock-door.groovy</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="49">
         <v>4.62962962962963E-4</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -3201,14 +3158,13 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/good-night-house.groovy","good-night-house.groovy")</f>
-        <v>good-night-house.groovy</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="49">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="49">
         <v>3.587962962962963E-4</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -3275,19 +3231,18 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/initial-state-event-streamer.groovy","initial-state-event-streamer.groovy")</f>
-        <v>initial-state-event-streamer.groovy</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
@@ -3355,18 +3310,17 @@
       <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lock-it-at-a-specific-time.groovy","lock-it-at-a-specific-time.groovy")</f>
-        <v>lock-it-at-a-specific-time.groovy</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="49">
         <v>3.125E-4</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="49">
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="9" t="s">
         <v>24</v>
       </c>
@@ -3431,21 +3385,20 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lock-it-when-i-leave.groovy","lock-it-when-i-leave.groovy")</f>
-        <v>lock-it-when-i-leave.groovy</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="49">
         <v>5.092592592592592E-4</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="49">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="49">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13">
+      <c r="H8" s="15"/>
+      <c r="I8" s="49">
         <v>2.777777777777778E-4</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -3509,24 +3462,23 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/make-it-so.groovy","make-it-so.groovy")</f>
-        <v>make-it-so.groovy</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="49">
         <v>4.861111111111111E-4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="49">
         <v>4.050925925925926E-4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="49">
         <v>3.356481481481481E-4</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="13">
+      <c r="H9" s="15"/>
+      <c r="I9" s="49">
         <v>3.356481481481481E-4</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="49">
         <v>4.166666666666667E-4</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -3587,25 +3539,24 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/nfc-tag-toggle.groovy","nfc-tag-toggle.groovy")</f>
-        <v>nfc-tag-toggle.groovy</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="49">
         <v>4.398148148148148E-4</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="49">
         <v>4.166666666666667E-4</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="13">
+      <c r="G10" s="51"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="49">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="49">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="49">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="L10" s="9" t="s">
@@ -3663,28 +3614,27 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/single-button-controller.groovy","single-button-controller.groovy")</f>
-        <v>single-button-controller.groovy</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="49">
         <v>4.861111111111111E-4</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="49">
         <v>5.787037037037037E-4</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="13">
+      <c r="G11" s="51"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="49">
         <v>3.125E-4</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="49">
         <v>4.861111111111111E-4</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="49">
         <v>6.365740740740741E-4</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="9" t="s">
         <v>24</v>
       </c>
@@ -3737,33 +3687,32 @@
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-auto-lock-unlock.groovy","smart-auto-lock-unlock.groovy")</f>
-        <v>smart-auto-lock-unlock.groovy</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="49">
         <v>4.62962962962963E-4</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="49">
         <v>3.356481481481481E-4</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="49">
         <v>3.356481481481481E-4</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="13">
+      <c r="H12" s="15"/>
+      <c r="I12" s="49">
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="49">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="49">
         <v>4.166666666666667E-4</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="49">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="49">
         <v>4.050925925925926E-4</v>
       </c>
       <c r="N12" s="9" t="s">
@@ -3815,36 +3764,35 @@
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/unlock-it-when-i-arrive.groovy","unlock-it-when-i-arrive.groovy")</f>
-        <v>unlock-it-when-i-arrive.groovy</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="49">
         <v>3.935185185185185E-4</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="49">
         <v>3.935185185185185E-4</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="49">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="13">
+      <c r="H13" s="15"/>
+      <c r="I13" s="49">
         <v>2.546296296296296E-4</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="49">
         <v>2.314814814814815E-4</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="49">
         <v>5.439814814814814E-4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="49">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="49">
         <v>4.5138888888888887E-4</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="49">
         <v>3.356481481481481E-4</v>
       </c>
       <c r="O13" s="9" t="s">
@@ -3893,33 +3841,32 @@
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/auto-lock-door.smartapp.groovy","auto-lock-door.smartapp.groovy")</f>
-        <v>auto-lock-door.smartapp.groovy</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="49">
         <v>4.861111111111111E-4</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="49">
         <v>3.356481481481481E-4</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="13">
+      <c r="G14" s="53"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="49">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="49">
         <v>4.050925925925926E-4</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="49">
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="49">
         <v>3.935185185185185E-4</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="13">
+      <c r="N14" s="50"/>
+      <c r="O14" s="49">
         <v>2.662037037037037E-4</v>
       </c>
       <c r="P14" s="9" t="s">
@@ -3959,28 +3906,27 @@
       <c r="A15" s="1">
         <v>13.0</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="9" t="s">
         <v>24</v>
       </c>
@@ -4021,39 +3967,38 @@
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeAwayFromHome.groovy","ecobeeAwayFromHome.groovy")</f>
-        <v>ecobeeAwayFromHome.groovy</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="49">
         <v>9.953703703703704E-4</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="49">
         <v>8.333333333333334E-4</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="13">
+      <c r="G16" s="53"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="49">
         <v>4.62962962962963E-4</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="49">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="49">
         <v>7.060185185185185E-4</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="49">
         <v>9.953703703703704E-4</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="49">
         <v>5.555555555555556E-4</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="49">
         <v>5.555555555555556E-4</v>
       </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="16"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="9" t="s">
         <v>24</v>
       </c>
@@ -4091,44 +4036,43 @@
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/FireCO2Alarm.groovy","FireCO2Alarm.groovy")</f>
-        <v>FireCO2Alarm.groovy</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="49">
         <v>0.002766203703703704</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="49">
         <v>0.0014583333333333334</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="49">
         <v>9.25925925925926E-4</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="13">
+      <c r="H17" s="15"/>
+      <c r="I17" s="49">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="49">
         <v>0.0014236111111111112</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="49">
         <v>9.953703703703704E-4</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="49">
         <v>6.944444444444445E-4</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="49">
         <v>0.0018287037037037037</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="49">
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="13">
+      <c r="O17" s="50"/>
+      <c r="P17" s="49">
         <v>4.050925925925926E-4</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="13">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="49">
         <v>0.0011111111111111111</v>
       </c>
       <c r="S17" s="9" t="s">
@@ -4159,31 +4103,30 @@
       <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="25" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/groveStreams.groovy","groveStreams.groovy")</f>
-        <v>groveStreams.groovy</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
+      <c r="D18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="9" t="s">
         <v>24</v>
       </c>
@@ -4209,32 +4152,31 @@
       <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="25" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/influxdb-logger.groovy","influxdb-logger.groovy")</f>
-        <v>influxdb-logger.groovy</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
+      <c r="D19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="9" t="s">
         <v>24</v>
       </c>
@@ -4257,33 +4199,32 @@
       <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="9" t="s">
         <v>24</v>
       </c>
@@ -4303,34 +4244,33 @@
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
+      <c r="D21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
       <c r="W21" s="9" t="s">
         <v>24</v>
       </c>
@@ -4347,51 +4287,50 @@
       <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/NotifyIfLeftUnlocked.groovy","NotifyIfLeftUnlocked.groovy")</f>
-        <v>NotifyIfLeftUnlocked.groovy</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="49">
         <v>4.050925925925926E-4</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="49">
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="13">
+      <c r="G22" s="53"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="49">
         <v>3.125E-4</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="49">
         <v>4.050925925925926E-4</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="49">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="49">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="13">
+      <c r="N22" s="53"/>
+      <c r="O22" s="49">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="13">
+      <c r="P22" s="53"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="49">
         <v>3.7037037037037035E-4</v>
       </c>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="9" t="s">
         <v>24</v>
       </c>
@@ -4405,33 +4344,32 @@
       <c r="A23" s="1">
         <v>21.0</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="15" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="9" t="s">
         <v>24</v>
       </c>
@@ -4439,7 +4377,7 @@
       <c r="AA23" s="10"/>
     </row>
     <row r="24">
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E24">
@@ -4526,13 +4464,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="28">
+      <c r="Z24" s="23">
         <f t="shared" ref="Z24:Z27" si="3">sum(E24:Y24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E25">
@@ -4619,13 +4557,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="29">
+      <c r="Z25" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E26">
@@ -4712,13 +4650,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="31">
+      <c r="Z26" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E27">
@@ -4805,7 +4743,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="31">
+      <c r="Z27" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4815,31 +4753,31 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
     </row>
     <row r="29">
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4847,15 +4785,15 @@
       <c r="E30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="55">
         <f>MIN(E3:Y23)</f>
         <v>0.0002314814815</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="55">
         <f>MAX(E3:Y23)</f>
         <v>0.002766203704</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="55">
         <f>AVERAGE(E3:Y23)</f>
         <v>0.0005242283951</v>
       </c>

--- a/Device Interaction/Automation/Locks.xlsx
+++ b/Device Interaction/Automation/Locks.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="38">
   <si>
     <t>Application</t>
   </si>
@@ -163,10 +163,7 @@
     <t>reader</t>
   </si>
   <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>oom</t>
+    <t>non-terminated</t>
   </si>
   <si>
     <t>sensor/schedule</t>
@@ -305,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -351,113 +348,116 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -858,7 +858,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>24</v>
@@ -926,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>5</v>
@@ -937,11 +937,11 @@
       <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>29</v>
+      <c r="G7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>24</v>
@@ -1101,7 +1101,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>26</v>
@@ -1178,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>29</v>
@@ -1258,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>29</v>
@@ -1273,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>24</v>
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>26</v>
@@ -1498,13 +1498,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>26</v>
@@ -1518,8 +1518,8 @@
       <c r="M14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>30</v>
+      <c r="N14" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>26</v>
@@ -1581,7 +1581,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>29</v>
@@ -1646,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
@@ -1658,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>26</v>
@@ -1685,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="15" t="s">
         <v>29</v>
@@ -1815,43 +1815,43 @@
         <v>29</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>29</v>
@@ -1916,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>29</v>
@@ -1987,7 +1987,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>29</v>
@@ -2002,7 +2002,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>29</v>
@@ -2082,7 +2082,7 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>29</v>
@@ -2138,13 +2138,13 @@
         <v>26</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>26</v>
@@ -2159,25 +2159,25 @@
         <v>26</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>29</v>
@@ -2224,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>29</v>
@@ -2364,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="Z24" s="23">
-        <f t="shared" ref="Z24:Z27" si="3">sum(E24:Y24)</f>
+        <f t="shared" ref="Z24:Z26" si="3">sum(E24:Y24)</f>
         <v>75</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:Y25" si="2">countif(E$3:E$23, "no error")</f>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -2461,198 +2461,104 @@
       </c>
       <c r="Z25" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="25" t="s">
-        <v>30</v>
+      <c r="D26" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:Y26" si="4">COUNTIF(E$3:E$23, "oom")</f>
-        <v>0</v>
+        <f t="shared" ref="E26:Y26" si="4">COUNTIF(E$3:E$23, "non-terminated")</f>
+        <v>7</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O26">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="26">
+      <c r="Z26" s="25">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ref="E27:Y27" si="5">COUNTIF(E$3:E$23, "timeout")</f>
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="26">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="AA27">
-        <f>sum(Z26:Z27)</f>
-        <v>122</v>
-      </c>
+      <c r="D27" s="26"/>
     </row>
     <row r="29">
       <c r="B29" s="7"/>
@@ -2837,31 +2743,31 @@
       <c r="Q46" s="47"/>
     </row>
     <row r="47">
-      <c r="E47" s="48"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48">
-      <c r="E48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="E48" s="26"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49">
-      <c r="E49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="26"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50">
-      <c r="E50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="E50" s="26"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51">
-      <c r="E51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="E51" s="26"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52">
-      <c r="E52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="E52" s="26"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53">
-      <c r="E53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="E53" s="26"/>
+      <c r="G53" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3082,8 +2988,8 @@
       <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="49">
-        <v>4.62962962962963E-4</v>
+      <c r="E4" s="48">
+        <v>9.259259259259259E-5</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
@@ -3161,11 +3067,11 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="F5" s="49">
-        <v>3.587962962962963E-4</v>
+      <c r="E5" s="48">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="F5" s="48">
+        <v>6.944444444444444E-5</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>24</v>
@@ -3240,9 +3146,9 @@
       <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
@@ -3308,19 +3214,19 @@
         <v>22</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="49">
-        <v>3.125E-4</v>
-      </c>
-      <c r="F7" s="49">
-        <v>2.8935185185185184E-4</v>
+      <c r="E7" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="F7" s="48">
+        <v>6.944444444444444E-5</v>
       </c>
       <c r="G7" s="50"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="9" t="s">
         <v>24</v>
       </c>
@@ -3388,18 +3294,18 @@
       <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="49">
-        <v>5.092592592592592E-4</v>
-      </c>
-      <c r="F8" s="49">
-        <v>3.7037037037037035E-4</v>
-      </c>
-      <c r="G8" s="49">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="49">
-        <v>2.777777777777778E-4</v>
+      <c r="E8" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="F8" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="G8" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="48">
+        <v>6.944444444444444E-5</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>24</v>
@@ -3465,21 +3371,21 @@
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="49">
-        <v>4.861111111111111E-4</v>
-      </c>
-      <c r="F9" s="49">
-        <v>4.050925925925926E-4</v>
-      </c>
-      <c r="G9" s="49">
-        <v>3.356481481481481E-4</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="49">
-        <v>3.356481481481481E-4</v>
-      </c>
-      <c r="J9" s="49">
-        <v>4.166666666666667E-4</v>
+      <c r="E9" s="48">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="F9" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="G9" s="48">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="48">
+        <v>1.388888888888889E-4</v>
+      </c>
+      <c r="J9" s="48">
+        <v>6.944444444444444E-5</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>24</v>
@@ -3542,22 +3448,22 @@
       <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="49">
-        <v>4.398148148148148E-4</v>
-      </c>
-      <c r="F10" s="49">
-        <v>4.166666666666667E-4</v>
+      <c r="E10" s="48">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="F10" s="48">
+        <v>8.101851851851852E-5</v>
       </c>
       <c r="G10" s="51"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="49">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="J10" s="49">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="K10" s="49">
-        <v>3.7037037037037035E-4</v>
+      <c r="H10" s="49"/>
+      <c r="I10" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="J10" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="K10" s="48">
+        <v>6.944444444444444E-5</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>24</v>
@@ -3617,22 +3523,22 @@
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="49">
-        <v>4.861111111111111E-4</v>
-      </c>
-      <c r="F11" s="49">
-        <v>5.787037037037037E-4</v>
+      <c r="E11" s="48">
+        <v>2.662037037037037E-4</v>
+      </c>
+      <c r="F11" s="48">
+        <v>8.101851851851852E-5</v>
       </c>
       <c r="G11" s="51"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="49">
-        <v>3.125E-4</v>
-      </c>
-      <c r="J11" s="49">
-        <v>4.861111111111111E-4</v>
-      </c>
-      <c r="K11" s="49">
-        <v>6.365740740740741E-4</v>
+      <c r="H11" s="49"/>
+      <c r="I11" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="J11" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="K11" s="48">
+        <v>4.050925925925926E-4</v>
       </c>
       <c r="L11" s="52"/>
       <c r="M11" s="9" t="s">
@@ -3690,30 +3596,30 @@
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="49">
-        <v>4.62962962962963E-4</v>
-      </c>
-      <c r="F12" s="49">
-        <v>3.356481481481481E-4</v>
-      </c>
-      <c r="G12" s="49">
-        <v>3.356481481481481E-4</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="49">
-        <v>2.8935185185185184E-4</v>
-      </c>
-      <c r="J12" s="49">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="K12" s="49">
-        <v>4.166666666666667E-4</v>
-      </c>
-      <c r="L12" s="49">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="M12" s="49">
-        <v>4.050925925925926E-4</v>
+      <c r="E12" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="F12" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="G12" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="J12" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="K12" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="L12" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="M12" s="48">
+        <v>8.101851851851852E-5</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>24</v>
@@ -3767,33 +3673,33 @@
       <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="49">
-        <v>3.935185185185185E-4</v>
-      </c>
-      <c r="F13" s="49">
-        <v>3.935185185185185E-4</v>
-      </c>
-      <c r="G13" s="49">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="49">
-        <v>2.546296296296296E-4</v>
-      </c>
-      <c r="J13" s="49">
-        <v>2.314814814814815E-4</v>
-      </c>
-      <c r="K13" s="49">
-        <v>5.439814814814814E-4</v>
-      </c>
-      <c r="L13" s="49">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="M13" s="49">
-        <v>4.5138888888888887E-4</v>
-      </c>
-      <c r="N13" s="49">
-        <v>3.356481481481481E-4</v>
+      <c r="E13" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="F13" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="G13" s="48">
+        <v>5.787037037037037E-5</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="J13" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="K13" s="48">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="L13" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="M13" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="N13" s="48">
+        <v>9.259259259259259E-5</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>24</v>
@@ -3844,29 +3750,29 @@
       <c r="D14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="49">
-        <v>4.861111111111111E-4</v>
-      </c>
-      <c r="F14" s="49">
-        <v>3.356481481481481E-4</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="49">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="K14" s="49">
-        <v>4.050925925925926E-4</v>
-      </c>
-      <c r="L14" s="49">
-        <v>2.8935185185185184E-4</v>
-      </c>
-      <c r="M14" s="49">
-        <v>3.935185185185185E-4</v>
+      <c r="E14" s="48">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="F14" s="48">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48">
+        <v>6.944444444444444E-5</v>
+      </c>
+      <c r="K14" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="L14" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="M14" s="48">
+        <v>9.259259259259259E-5</v>
       </c>
       <c r="N14" s="50"/>
-      <c r="O14" s="49">
+      <c r="O14" s="48">
         <v>2.662037037037037E-4</v>
       </c>
       <c r="P14" s="9" t="s">
@@ -3915,18 +3821,18 @@
       <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
       <c r="Q15" s="9" t="s">
         <v>24</v>
       </c>
@@ -3965,40 +3871,40 @@
         <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="49">
-        <v>9.953703703703704E-4</v>
-      </c>
-      <c r="F16" s="49">
-        <v>8.333333333333334E-4</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="49">
-        <v>4.62962962962963E-4</v>
-      </c>
-      <c r="K16" s="49">
-        <v>6.134259259259259E-4</v>
-      </c>
-      <c r="L16" s="49">
-        <v>7.060185185185185E-4</v>
-      </c>
-      <c r="M16" s="49">
-        <v>9.953703703703704E-4</v>
-      </c>
-      <c r="N16" s="49">
+      <c r="E16" s="48">
+        <v>3.587962962962963E-4</v>
+      </c>
+      <c r="F16" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="K16" s="48">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="L16" s="48">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="M16" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="N16" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="O16" s="48">
         <v>5.555555555555556E-4</v>
       </c>
-      <c r="O16" s="49">
-        <v>5.555555555555556E-4</v>
-      </c>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="15"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="9" t="s">
         <v>24</v>
       </c>
@@ -4039,41 +3945,41 @@
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="49">
-        <v>0.002766203703703704</v>
-      </c>
-      <c r="F17" s="49">
-        <v>0.0014583333333333334</v>
-      </c>
-      <c r="G17" s="49">
-        <v>9.25925925925926E-4</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="49">
-        <v>3.8194444444444446E-4</v>
-      </c>
-      <c r="J17" s="49">
-        <v>0.0014236111111111112</v>
-      </c>
-      <c r="K17" s="49">
-        <v>9.953703703703704E-4</v>
-      </c>
-      <c r="L17" s="49">
-        <v>6.944444444444445E-4</v>
-      </c>
-      <c r="M17" s="49">
-        <v>0.0018287037037037037</v>
-      </c>
-      <c r="N17" s="49">
-        <v>4.2824074074074075E-4</v>
-      </c>
-      <c r="O17" s="50"/>
-      <c r="P17" s="49">
-        <v>4.050925925925926E-4</v>
-      </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="49">
-        <v>0.0011111111111111111</v>
+      <c r="E17" s="48">
+        <v>0.0010763888888888889</v>
+      </c>
+      <c r="F17" s="48">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="G17" s="48">
+        <v>1.388888888888889E-4</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="48">
+        <v>9.259259259259259E-5</v>
+      </c>
+      <c r="J17" s="48">
+        <v>1.388888888888889E-4</v>
+      </c>
+      <c r="K17" s="48">
+        <v>7.754629629629629E-4</v>
+      </c>
+      <c r="L17" s="48">
+        <v>1.388888888888889E-4</v>
+      </c>
+      <c r="M17" s="48">
+        <v>1.388888888888889E-4</v>
+      </c>
+      <c r="N17" s="48">
+        <v>4.62962962962963E-4</v>
+      </c>
+      <c r="O17" s="53"/>
+      <c r="P17" s="48">
+        <v>0.0010300925925925926</v>
+      </c>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="48">
+        <v>1.5046296296296297E-4</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>24</v>
@@ -4112,21 +4018,21 @@
       <c r="D18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
       <c r="T18" s="9" t="s">
         <v>24</v>
       </c>
@@ -4161,22 +4067,22 @@
       <c r="D19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
       <c r="U19" s="9" t="s">
         <v>24</v>
       </c>
@@ -4208,23 +4114,23 @@
       <c r="D20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
       <c r="V20" s="9" t="s">
         <v>24</v>
       </c>
@@ -4253,24 +4159,24 @@
       <c r="D21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
       <c r="W21" s="9" t="s">
         <v>24</v>
       </c>
@@ -4296,41 +4202,41 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="49">
-        <v>4.050925925925926E-4</v>
-      </c>
-      <c r="F22" s="49">
-        <v>4.2824074074074075E-4</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="49">
-        <v>3.125E-4</v>
-      </c>
-      <c r="K22" s="49">
-        <v>4.050925925925926E-4</v>
-      </c>
-      <c r="L22" s="49">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="M22" s="49">
-        <v>3.7037037037037035E-4</v>
-      </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="49">
-        <v>3.0092592592592595E-4</v>
-      </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="49">
-        <v>3.7037037037037035E-4</v>
-      </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
+      <c r="E22" s="48">
+        <v>1.1574074074074075E-4</v>
+      </c>
+      <c r="F22" s="48">
+        <v>1.5046296296296297E-4</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="48">
+        <v>1.388888888888889E-4</v>
+      </c>
+      <c r="K22" s="48">
+        <v>2.777777777777778E-4</v>
+      </c>
+      <c r="L22" s="48">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="M22" s="48">
+        <v>3.8194444444444446E-4</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="48">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="48">
+        <v>7.986111111111112E-4</v>
+      </c>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
       <c r="X22" s="9" t="s">
         <v>24</v>
       </c>
@@ -4350,26 +4256,26 @@
       <c r="D23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
       <c r="Y23" s="9" t="s">
         <v>24</v>
       </c>
@@ -4377,379 +4283,39 @@
       <c r="AA23" s="10"/>
     </row>
     <row r="24">
-      <c r="D24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <f>countif(E$3:E$23, "detected")</f>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24:Y24" si="1">countif(F3:F23, "detected")</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="23">
-        <f t="shared" ref="Z24:Z27" si="3">sum(E24:Y24)</f>
-        <v>0</v>
-      </c>
+      <c r="D24" s="26"/>
     </row>
     <row r="25">
-      <c r="D25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:Y25" si="2">countif(E$3:E$23, "no error")</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="D25" s="54"/>
     </row>
     <row r="26">
-      <c r="D26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:Y26" si="4">COUNTIF(E$3:E$23, "oom")</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="D26" s="26"/>
+      <c r="F26" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ref="E27:Y27" si="5">COUNTIF(E$3:E$23, "timeout")</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f>sum(Z26:Z27)</f>
-        <v>0</v>
+      <c r="D27" s="26"/>
+      <c r="E27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="56">
+        <f>MIN(E3:Y23)</f>
+        <v>0.00005787037037</v>
+      </c>
+      <c r="G27" s="56">
+        <f>MAX(E3:Y23)</f>
+        <v>0.001076388889</v>
+      </c>
+      <c r="H27" s="56">
+        <f>AVERAGE(E3:Y23)</f>
+        <v>0.0001770061728</v>
       </c>
     </row>
     <row r="28">
@@ -4770,34 +4336,6 @@
       <c r="P28" s="47"/>
       <c r="Q28" s="47"/>
     </row>
-    <row r="29">
-      <c r="F29" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="55">
-        <f>MIN(E3:Y23)</f>
-        <v>0.0002314814815</v>
-      </c>
-      <c r="G30" s="55">
-        <f>MAX(E3:Y23)</f>
-        <v>0.002766203704</v>
-      </c>
-      <c r="H30" s="55">
-        <f>AVERAGE(E3:Y23)</f>
-        <v>0.0005242283951</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
